--- a/DepartmentalStatus.xlsx
+++ b/DepartmentalStatus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -27,6 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
+    <t>Sr No</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -40,111 +54,6 @@
   </si>
   <si>
     <t>Role</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Description Link</t>
-  </si>
-  <si>
-    <t>Nitesh Chachriya</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>PPO</t>
-  </si>
-  <si>
-    <t>PrivaSapien</t>
-  </si>
-  <si>
-    <t>NLP Expert</t>
-  </si>
-  <si>
-    <t>29/35</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Subhasis Biswas</t>
-  </si>
-  <si>
-    <t>Wells Fargo</t>
-  </si>
-  <si>
-    <t>Quantitative Analyst</t>
-  </si>
-  <si>
-    <t>24/35</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>WellsFargoQAP.pdf</t>
-  </si>
-  <si>
-    <t>Suvendu Kar</t>
-  </si>
-  <si>
-    <t>OLA</t>
-  </si>
-  <si>
-    <t>RSE-AI ENGG</t>
-  </si>
-  <si>
-    <t>35/37</t>
-  </si>
-  <si>
-    <t>OLA_JD_AIML.pdf</t>
-  </si>
-  <si>
-    <t>Karan Raj Bagri</t>
-  </si>
-  <si>
-    <t>Capital One</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>CapitalOneBA.pdf</t>
-  </si>
-  <si>
-    <t>Rushikesh Pawar</t>
-  </si>
-  <si>
-    <t>Observe.ai</t>
-  </si>
-  <si>
-    <t>ML Engineer (NLP)</t>
-  </si>
-  <si>
-    <t>36/40</t>
-  </si>
-  <si>
-    <t>Observe Ai MLE NLP</t>
-  </si>
-  <si>
-    <t>Ramanujam</t>
-  </si>
-  <si>
-    <t>Meesho DS JD</t>
-  </si>
-  <si>
-    <t>Meesho</t>
-  </si>
-  <si>
-    <t>Sr No</t>
-  </si>
-  <si>
-    <t>22/36</t>
-  </si>
-  <si>
-    <t>Data Scientist</t>
   </si>
   <si>
     <r>
@@ -172,12 +81,114 @@
       <t xml:space="preserve"> LPA</t>
     </r>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description Link</t>
+  </si>
+  <si>
+    <t>Nitesh Chachriya</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>PrivaSapien</t>
+  </si>
+  <si>
+    <t>NLP Expert</t>
+  </si>
+  <si>
+    <t>29/35</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Subhasis Biswas</t>
+  </si>
+  <si>
+    <t>Wells Fargo</t>
+  </si>
+  <si>
+    <t>Quantitative Analyst</t>
+  </si>
+  <si>
+    <t>24/35</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>WellsFargoQAP.pdf</t>
+  </si>
+  <si>
+    <t>Suvendu Kar</t>
+  </si>
+  <si>
+    <t>OLA</t>
+  </si>
+  <si>
+    <t>RSE-AI ENGG</t>
+  </si>
+  <si>
+    <t>35/37</t>
+  </si>
+  <si>
+    <t>OLA_JD_AIML.pdf</t>
+  </si>
+  <si>
+    <t>Karan Raj Bagri</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>CapitalOneBA.pdf</t>
+  </si>
+  <si>
+    <t>Ramanujam</t>
+  </si>
+  <si>
+    <t>Meesho</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>22/36</t>
+  </si>
+  <si>
+    <t>Meesho DS JD</t>
+  </si>
+  <si>
+    <t>Rushikesh Pawar</t>
+  </si>
+  <si>
+    <t>Observe.ai</t>
+  </si>
+  <si>
+    <t>ML Engineer (NLP)</t>
+  </si>
+  <si>
+    <t>36/40</t>
+  </si>
+  <si>
+    <t>Observe Ai MLE NLP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,82 +539,82 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>45574</v>
@@ -612,27 +623,27 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>45574</v>
@@ -641,27 +652,27 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>45575</v>
@@ -670,27 +681,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3">
         <v>45579</v>
@@ -699,27 +710,27 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>45581</v>
@@ -728,19 +739,19 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DepartmentalStatus.xlsx
+++ b/DepartmentalStatus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://indianinstituteofscience-my.sharepoint.com/personal/subhasisbisw_iisc_ac_in/Documents/PlacementExperiences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_F25DC773A252ABDACC10487AE1DC6BBC5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47DD7515-CB8E-402F-A911-0B63BC245AB8}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="11_F25DC773A252ABDACC10487AE1DC6BBC5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18FEE1AC-6070-44CC-AED6-6AD0B25EF2F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FinalSelectionList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Sr No</t>
   </si>
@@ -100,15 +100,21 @@
     <t>PrivaSapien</t>
   </si>
   <si>
-    <t>NLP Expert</t>
-  </si>
-  <si>
-    <t>29/35</t>
+    <t>Privacy Research Scientist (NLP)</t>
+  </si>
+  <si>
+    <t>28/34</t>
   </si>
   <si>
     <t>Bangalore</t>
   </si>
   <si>
+    <t>Tejas Tonde</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
     <t>Subhasis Biswas</t>
   </si>
   <si>
@@ -182,6 +188,165 @@
   </si>
   <si>
     <t>Observe Ai MLE NLP</t>
+  </si>
+  <si>
+    <t>Vivek Dhamale</t>
+  </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>AI Lab Researcher</t>
+  </si>
+  <si>
+    <t>25/28</t>
+  </si>
+  <si>
+    <t>Fujitsu_AI_Lab_Reasercher_JD</t>
+  </si>
+  <si>
+    <t>Sameeksha Bhatia</t>
+  </si>
+  <si>
+    <t>Kevin Kuriakose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujitsu </t>
+  </si>
+  <si>
+    <t>Monaka HPC</t>
+  </si>
+  <si>
+    <t>24/27</t>
+  </si>
+  <si>
+    <t>Fujitsu_HPC_JD</t>
+  </si>
+  <si>
+    <t>Ruchi Bhoot</t>
+  </si>
+  <si>
+    <t>FTI</t>
+  </si>
+  <si>
+    <t>Fujitsu_FTI_JD</t>
+  </si>
+  <si>
+    <t>Boddapati V S Dhruthi</t>
+  </si>
+  <si>
+    <t>Lam Research</t>
+  </si>
+  <si>
+    <t>ML Engineer</t>
+  </si>
+  <si>
+    <t>17/28.5</t>
+  </si>
+  <si>
+    <t>Lam Research ML Engineer JD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhanshu Pandey </t>
+  </si>
+  <si>
+    <t>Netradyne</t>
+  </si>
+  <si>
+    <t>18/24</t>
+  </si>
+  <si>
+    <t>Netradyne(DataScientist)</t>
+  </si>
+  <si>
+    <t>Diksha Seth</t>
+  </si>
+  <si>
+    <t>Arun Joshua Kennedy</t>
+  </si>
+  <si>
+    <t>AI engineer</t>
+  </si>
+  <si>
+    <t>Netradyne_AI_Engineer_JD</t>
+  </si>
+  <si>
+    <t>Sofia Sunam</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>26/26</t>
+  </si>
+  <si>
+    <t>Data_Scientist_Airtel</t>
+  </si>
+  <si>
+    <t>Sai Venkat</t>
+  </si>
+  <si>
+    <t>Skellam AI</t>
+  </si>
+  <si>
+    <t>Associate ML Engineer</t>
+  </si>
+  <si>
+    <t>18/20</t>
+  </si>
+  <si>
+    <t>Skellam_AI.pdf</t>
+  </si>
+  <si>
+    <t>Dona Burman</t>
+  </si>
+  <si>
+    <t>TIAA</t>
+  </si>
+  <si>
+    <t>Investment AI Engineer</t>
+  </si>
+  <si>
+    <t>18/18.8</t>
+  </si>
+  <si>
+    <t>Sakshi Srivastava</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra</t>
+  </si>
+  <si>
+    <t>SDE</t>
+  </si>
+  <si>
+    <t>15/18</t>
+  </si>
+  <si>
+    <t>Suprit Chafle</t>
+  </si>
+  <si>
+    <t>Divya Pulivarthi</t>
+  </si>
+  <si>
+    <t>Piashi Ganguly</t>
+  </si>
+  <si>
+    <t>Aptiv</t>
+  </si>
+  <si>
+    <t>19/23</t>
+  </si>
+  <si>
+    <t>Pradhumn Sharma</t>
+  </si>
+  <si>
+    <t>Amagi</t>
+  </si>
+  <si>
+    <t>19.1/20.6</t>
   </si>
 </sst>
 </file>
@@ -533,19 +698,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I18" sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="34" style="2" customWidth="1"/>
@@ -616,26 +782,20 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
-        <v>45574</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -643,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>45574</v>
@@ -652,19 +812,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -672,28 +832,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3">
-        <v>45575</v>
+        <v>45574</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -701,28 +861,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
-        <v>45579</v>
+        <v>45575</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -730,39 +890,508 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3">
-        <v>45581</v>
+        <v>45579</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="C8" s="3">
+        <v>45581</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45589</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45589</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45589</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45589</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45589</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45591</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45591</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45591</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45603</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45626</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45626</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45627</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45627</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45627</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45629</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45629</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EdJ6J2i--AlFp_HVz7NagcYBgB_1NXpN2o5Jh2563e611g?e=AbraDg" xr:uid="{9112A735-41E2-4A3F-BEF1-A918248E2F9B}"/>
-    <hyperlink ref="I5" r:id="rId2" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EQ2Ivazw13hOkv_5pDvuuIABDbU9F3oplKCLRREIL9OVyg?e=yN8XvD" xr:uid="{4DC0F2E8-8138-4341-A176-17C3C957BBE1}"/>
-    <hyperlink ref="I3" r:id="rId3" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EYchSqdumqFCpn2dryxqrroBqFtrXPCZkAL86EUzChG5lA?e=DLgcMr" xr:uid="{482EDA00-1E12-46F0-8CF2-96692A5E122E}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{3FB6B28F-DEAD-472B-BB2A-2446C965BB11}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{516740FD-F6A5-4DE9-85C1-57F0EE94AD35}"/>
+    <hyperlink ref="I5" r:id="rId1" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EdJ6J2i--AlFp_HVz7NagcYBgB_1NXpN2o5Jh2563e611g?e=AbraDg" xr:uid="{9112A735-41E2-4A3F-BEF1-A918248E2F9B}"/>
+    <hyperlink ref="I6" r:id="rId2" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EQ2Ivazw13hOkv_5pDvuuIABDbU9F3oplKCLRREIL9OVyg?e=yN8XvD" xr:uid="{4DC0F2E8-8138-4341-A176-17C3C957BBE1}"/>
+    <hyperlink ref="I4" r:id="rId3" display="../../../../:b:/g/personal/subhasisbisw_iisc_ac_in/EYchSqdumqFCpn2dryxqrroBqFtrXPCZkAL86EUzChG5lA?e=DLgcMr" xr:uid="{482EDA00-1E12-46F0-8CF2-96692A5E122E}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{3FB6B28F-DEAD-472B-BB2A-2446C965BB11}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{516740FD-F6A5-4DE9-85C1-57F0EE94AD35}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{98064C19-299B-48A8-8E7B-DEF5F77B89EA}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{12E6F8B8-B2C1-4CB0-9D52-F13828925730}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{9A0FFD79-4B69-4A24-B6B7-FB791082F8AC}"/>
+    <hyperlink ref="I9" r:id="rId9" xr:uid="{5494FB64-2C08-4CDD-98F8-CC7765F3E7B5}"/>
+    <hyperlink ref="I10" r:id="rId10" xr:uid="{EB34C448-F44B-4B4A-8A50-444398DA847E}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{D35E02B2-8A89-49D4-808D-B8F03CDBED7F}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{98F7C942-A4FB-4379-B90F-239CFD46DE39}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{6DA36201-2FE2-4EAB-A2A6-F03F6B7F8B13}"/>
+    <hyperlink ref="I18" r:id="rId14" xr:uid="{5B06CCE2-A23B-4738-82F4-FCE05EFE3F75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>